--- a/Tools/excel2json-master/main_data.xlsx
+++ b/Tools/excel2json-master/main_data.xlsx
@@ -6,6 +6,7 @@
     <sheet state="visible" name="종목" sheetId="1" r:id="rId3"/>
     <sheet state="visible" name="나라" sheetId="2" r:id="rId4"/>
     <sheet state="visible" name="유물" sheetId="3" r:id="rId5"/>
+    <sheet state="visible" name="해설" sheetId="4" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -105,16 +106,93 @@
 </comments>
 </file>
 
+<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author/>
+  </authors>
+  <commentList>
+    <comment authorId="0" ref="C2">
+      <text>
+        <t xml:space="preserve">상황발생전 해설자들 코멘트 적기
+{0} 표시는 종목명이 들어갈 자리.
+{0}쓰면 다음엔 {1} 다음엔 {2} 이런식으로 나가면됨.</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="107">
+  <si>
+    <t>#gametype[{}]</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>player_cnt</t>
+  </si>
+  <si>
+    <t>win_type</t>
+  </si>
+  <si>
+    <t>알파인스키</t>
+  </si>
+  <si>
+    <t>RANK</t>
+  </si>
+  <si>
+    <t>바이애슬론</t>
+  </si>
+  <si>
+    <t>봅슬레이</t>
+  </si>
+  <si>
+    <t>POINT</t>
+  </si>
+  <si>
+    <t>크로스컨트리스키</t>
+  </si>
+  <si>
+    <t>컬링</t>
+  </si>
+  <si>
+    <t>피겨스케이팅</t>
+  </si>
+  <si>
+    <t>프리스타일스키</t>
+  </si>
+  <si>
+    <t>아이스하키</t>
+  </si>
+  <si>
+    <t>루지</t>
+  </si>
+  <si>
+    <t>노르딕복합</t>
+  </si>
+  <si>
+    <t>쇼트트랙</t>
+  </si>
+  <si>
+    <t>스피드스케이팅</t>
+  </si>
+  <si>
+    <t>스켈레톤</t>
+  </si>
+  <si>
+    <t>스키점프</t>
+  </si>
+  <si>
+    <t>스노우보드</t>
+  </si>
   <si>
     <t>#item[{}]</t>
-  </si>
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>name</t>
   </si>
   <si>
     <t>main_skill</t>
@@ -166,18 +244,36 @@
 승리점수가 -30~30% 증가한다.</t>
   </si>
   <si>
-    <t>#gametype[{}]</t>
+    <t>#commentary[{}]</t>
+  </si>
+  <si>
+    <t>content</t>
+  </si>
+  <si>
+    <t>안녕하세요.
+안녕하세요.
+오늘은 {0} 경기가 있는 날입니다.
+어쩌구저쩌구 시부렁
+{1} 경기에 참여한 선수들이 입장합니다.</t>
+  </si>
+  <si>
+    <t>Hellow.
+Hi.
+오늘은 {0} 경기가 있는 날입니다.
+어쩌구저쩌구 시부렁
+{1} 경기에 참여한 선수들이 입장합니다.</t>
+  </si>
+  <si>
+    <t>바보들.
+채워라.
+오늘은 {0} 경기가 있는 날입니다.
+어쩌구저쩌구 시부렁
+{1} 경기에 참여한 선수들이 입장합니다.</t>
   </si>
   <si>
     <t>#nation[{}]</t>
   </si>
   <si>
-    <t>player_cnt</t>
-  </si>
-  <si>
-    <t>win_type</t>
-  </si>
-  <si>
     <t>very_good_thing</t>
   </si>
   <si>
@@ -187,9 +283,6 @@
     <t>wrong_thing</t>
   </si>
   <si>
-    <t>알파인스키</t>
-  </si>
-  <si>
     <t>대한민국</t>
   </si>
   <si>
@@ -208,9 +301,6 @@
     <t>1,2,5</t>
   </si>
   <si>
-    <t>RANK</t>
-  </si>
-  <si>
     <t>5,8,8</t>
   </si>
   <si>
@@ -241,9 +331,6 @@
     <t>3,13</t>
   </si>
   <si>
-    <t>바이애슬론</t>
-  </si>
-  <si>
     <t>노르웨이</t>
   </si>
   <si>
@@ -256,9 +343,6 @@
     <t>3,14</t>
   </si>
   <si>
-    <t>봅슬레이</t>
-  </si>
-  <si>
     <t>러시아</t>
   </si>
   <si>
@@ -289,18 +373,12 @@
     <t>1,2,11</t>
   </si>
   <si>
-    <t>POINT</t>
-  </si>
-  <si>
     <t>5,8,14</t>
   </si>
   <si>
     <t>3,17</t>
   </si>
   <si>
-    <t>크로스컨트리스키</t>
-  </si>
-  <si>
     <t>독일</t>
   </si>
   <si>
@@ -319,9 +397,6 @@
     <t>1,2,13</t>
   </si>
   <si>
-    <t>컬링</t>
-  </si>
-  <si>
     <t>5,8,16</t>
   </si>
   <si>
@@ -340,9 +415,6 @@
     <t>3,20</t>
   </si>
   <si>
-    <t>피겨스케이팅</t>
-  </si>
-  <si>
     <t>오스트리아</t>
   </si>
   <si>
@@ -364,9 +436,6 @@
     <t>5,8,19</t>
   </si>
   <si>
-    <t>프리스타일스키</t>
-  </si>
-  <si>
     <t>3,22</t>
   </si>
   <si>
@@ -382,47 +451,23 @@
     <t>3,23</t>
   </si>
   <si>
-    <t>아이스하키</t>
-  </si>
-  <si>
     <t>스웨덴</t>
   </si>
   <si>
     <t>1,2,18</t>
   </si>
   <si>
-    <t>루지</t>
-  </si>
-  <si>
     <t>5,8,21</t>
   </si>
   <si>
     <t>3,24</t>
-  </si>
-  <si>
-    <t>노르딕복합</t>
-  </si>
-  <si>
-    <t>쇼트트랙</t>
-  </si>
-  <si>
-    <t>스피드스케이팅</t>
-  </si>
-  <si>
-    <t>스켈레톤</t>
-  </si>
-  <si>
-    <t>스키점프</t>
-  </si>
-  <si>
-    <t>스노우보드</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -431,6 +476,13 @@
     <font/>
     <font>
       <color rgb="FFFFFFFF"/>
+    </font>
+    <font>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="3">
@@ -453,7 +505,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -463,6 +515,18 @@
     <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -480,6 +544,10 @@
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
 </file>
 
@@ -492,7 +560,7 @@
   <sheetData>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>1</v>
@@ -501,10 +569,10 @@
         <v>2</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>21</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -512,13 +580,13 @@
         <v>1.0</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="D3" s="1">
         <v>1.0</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>32</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -526,13 +594,13 @@
         <v>2.0</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>43</v>
+        <v>7</v>
       </c>
       <c r="D4" s="1">
         <v>1.0</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>32</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -540,13 +608,13 @@
         <v>3.0</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>48</v>
+        <v>8</v>
       </c>
       <c r="D5" s="1">
         <v>1.0</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>59</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -554,13 +622,13 @@
         <v>4.0</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>62</v>
+        <v>10</v>
       </c>
       <c r="D6" s="1">
         <v>1.0</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>59</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7">
@@ -568,13 +636,13 @@
         <v>5.0</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>69</v>
+        <v>11</v>
       </c>
       <c r="D7" s="1">
         <v>1.0</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>59</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8">
@@ -582,13 +650,13 @@
         <v>6.0</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>76</v>
+        <v>12</v>
       </c>
       <c r="D8" s="1">
         <v>1.0</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>59</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9">
@@ -596,13 +664,13 @@
         <v>7.0</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>84</v>
+        <v>13</v>
       </c>
       <c r="D9" s="1">
         <v>1.0</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>59</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10">
@@ -610,13 +678,13 @@
         <v>8.0</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>90</v>
+        <v>14</v>
       </c>
       <c r="D10" s="1">
         <v>1.0</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>59</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11">
@@ -624,13 +692,13 @@
         <v>9.0</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>93</v>
+        <v>15</v>
       </c>
       <c r="D11" s="1">
         <v>1.0</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>59</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12">
@@ -638,13 +706,13 @@
         <v>10.0</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>96</v>
+        <v>16</v>
       </c>
       <c r="D12" s="1">
         <v>1.0</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>59</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13">
@@ -652,13 +720,13 @@
         <v>11.0</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>97</v>
+        <v>17</v>
       </c>
       <c r="D13" s="1">
         <v>1.0</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>59</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14">
@@ -666,13 +734,13 @@
         <v>12.0</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>98</v>
+        <v>18</v>
       </c>
       <c r="D14" s="1">
         <v>1.0</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>59</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15">
@@ -680,13 +748,13 @@
         <v>13.0</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>99</v>
+        <v>19</v>
       </c>
       <c r="D15" s="1">
         <v>1.0</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>59</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16">
@@ -694,13 +762,13 @@
         <v>14.0</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="D16" s="1">
         <v>1.0</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>59</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17">
@@ -708,13 +776,13 @@
         <v>15.0</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>101</v>
+        <v>21</v>
       </c>
       <c r="D17" s="1">
         <v>1.0</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>59</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -735,7 +803,7 @@
   <sheetData>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>1</v>
@@ -744,13 +812,13 @@
         <v>2</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="G2" s="1"/>
     </row>
@@ -759,16 +827,16 @@
         <v>1.0</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>29</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4">
@@ -776,16 +844,16 @@
         <v>2.0</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>33</v>
+        <v>53</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>34</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5">
@@ -793,16 +861,16 @@
         <v>3.0</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>36</v>
+        <v>56</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6">
@@ -810,16 +878,16 @@
         <v>4.0</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>41</v>
+        <v>61</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>42</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7">
@@ -827,16 +895,16 @@
         <v>5.0</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>46</v>
+        <v>65</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>47</v>
+        <v>66</v>
       </c>
     </row>
     <row r="8">
@@ -844,16 +912,16 @@
         <v>6.0</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>51</v>
+        <v>69</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>52</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9">
@@ -861,16 +929,16 @@
         <v>7.0</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>53</v>
+        <v>71</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>54</v>
+        <v>72</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>55</v>
+        <v>73</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>56</v>
+        <v>74</v>
       </c>
     </row>
     <row r="10">
@@ -878,16 +946,16 @@
         <v>8.0</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>57</v>
+        <v>75</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>58</v>
+        <v>76</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>60</v>
+        <v>77</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>61</v>
+        <v>78</v>
       </c>
     </row>
     <row r="11">
@@ -895,16 +963,16 @@
         <v>9.0</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>66</v>
+        <v>82</v>
       </c>
     </row>
     <row r="12">
@@ -912,16 +980,16 @@
         <v>10.0</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>67</v>
+        <v>83</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>68</v>
+        <v>84</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>71</v>
+        <v>86</v>
       </c>
     </row>
     <row r="13">
@@ -929,16 +997,16 @@
         <v>11.0</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>72</v>
+        <v>87</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>73</v>
+        <v>88</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>75</v>
+        <v>90</v>
       </c>
     </row>
     <row r="14">
@@ -946,16 +1014,16 @@
         <v>12.0</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>80</v>
+        <v>94</v>
       </c>
     </row>
     <row r="15">
@@ -963,16 +1031,16 @@
         <v>13.0</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>83</v>
+        <v>97</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
     </row>
     <row r="16">
@@ -980,16 +1048,16 @@
         <v>14.0</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>86</v>
+        <v>99</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>88</v>
+        <v>101</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>89</v>
+        <v>102</v>
       </c>
     </row>
     <row r="17">
@@ -997,16 +1065,16 @@
         <v>15.0</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>92</v>
+        <v>104</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>94</v>
+        <v>105</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -1027,7 +1095,7 @@
   <sheetData>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>1</v>
@@ -1036,16 +1104,16 @@
         <v>2</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3">
@@ -1053,10 +1121,10 @@
         <v>1.0</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="E3" s="1">
         <v>1.0</v>
@@ -1065,7 +1133,7 @@
         <v>0.0</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4">
@@ -1073,10 +1141,10 @@
         <v>2.0</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="E4" s="1">
         <v>20.0</v>
@@ -1085,7 +1153,7 @@
         <v>30.0</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5">
@@ -1093,10 +1161,10 @@
         <v>3.0</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="E5" s="1">
         <v>2.5</v>
@@ -1105,7 +1173,7 @@
         <v>0.0</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6">
@@ -1113,10 +1181,10 @@
         <v>4.0</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="E6" s="1">
         <v>-30.0</v>
@@ -1125,7 +1193,7 @@
         <v>30.0</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7">
@@ -1160,6 +1228,57 @@
     </row>
     <row r="17">
       <c r="B17" s="1"/>
+    </row>
+  </sheetData>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="3" max="3" width="58.29"/>
+  </cols>
+  <sheetData>
+    <row r="2">
+      <c r="A2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="B3" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="B4" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="B5" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>42</v>
+      </c>
     </row>
   </sheetData>
   <drawing r:id="rId2"/>

--- a/Tools/excel2json-master/main_data.xlsx
+++ b/Tools/excel2json-master/main_data.xlsx
@@ -126,6 +126,12 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="107">
   <si>
+    <t>#nation[{}]</t>
+  </si>
+  <si>
+    <t>#item[{}]</t>
+  </si>
+  <si>
     <t>#gametype[{}]</t>
   </si>
   <si>
@@ -138,110 +144,292 @@
     <t>player_cnt</t>
   </si>
   <si>
+    <t>very_good_thing</t>
+  </si>
+  <si>
+    <t>main_skill</t>
+  </si>
+  <si>
+    <t>good_thing</t>
+  </si>
+  <si>
     <t>win_type</t>
   </si>
   <si>
+    <t>sub_value_1</t>
+  </si>
+  <si>
+    <t>wrong_thing</t>
+  </si>
+  <si>
+    <t>sub_value_2</t>
+  </si>
+  <si>
+    <t>decs</t>
+  </si>
+  <si>
+    <t>대한민국</t>
+  </si>
+  <si>
     <t>알파인스키</t>
   </si>
   <si>
+    <t>1,2,4</t>
+  </si>
+  <si>
     <t>RANK</t>
   </si>
   <si>
+    <t>5,8,7</t>
+  </si>
+  <si>
+    <t>3,10</t>
+  </si>
+  <si>
     <t>바이애슬론</t>
   </si>
   <si>
+    <t>대통령 표창</t>
+  </si>
+  <si>
+    <t>일본</t>
+  </si>
+  <si>
+    <t>BONUS_CARD</t>
+  </si>
+  <si>
     <t>봅슬레이</t>
   </si>
   <si>
+    <t>1,2,5</t>
+  </si>
+  <si>
+    <t>5,8,8</t>
+  </si>
+  <si>
     <t>POINT</t>
   </si>
   <si>
+    <t>3,11</t>
+  </si>
+  <si>
     <t>크로스컨트리스키</t>
   </si>
   <si>
+    <t>저번 체육대회에서 받은 대통령 표창. 명예롭다.\n보너스 카드를 1장 더 볼수있다.</t>
+  </si>
+  <si>
+    <t>중국</t>
+  </si>
+  <si>
+    <t>1,2,6</t>
+  </si>
+  <si>
+    <t>5,8,9</t>
+  </si>
+  <si>
     <t>컬링</t>
   </si>
   <si>
+    <t>3,12</t>
+  </si>
+  <si>
+    <t>빛바랜 사진</t>
+  </si>
+  <si>
+    <t>미국</t>
+  </si>
+  <si>
+    <t>PLUS</t>
+  </si>
+  <si>
+    <t>1,2,7</t>
+  </si>
+  <si>
+    <t>5,8,10</t>
+  </si>
+  <si>
     <t>피겨스케이팅</t>
   </si>
   <si>
+    <t>3,13</t>
+  </si>
+  <si>
+    <t>노르웨이</t>
+  </si>
+  <si>
+    <t>가족과의 행복한 시간이 담긴 사진.\n승리점수가 20~30% 증가한다.</t>
+  </si>
+  <si>
     <t>프리스타일스키</t>
   </si>
   <si>
+    <t>1,2,8</t>
+  </si>
+  <si>
+    <t>5,8,11</t>
+  </si>
+  <si>
+    <t>3,14</t>
+  </si>
+  <si>
+    <t>응원소리</t>
+  </si>
+  <si>
+    <t>러시아</t>
+  </si>
+  <si>
     <t>아이스하키</t>
   </si>
   <si>
+    <t>MULTIPLY</t>
+  </si>
+  <si>
+    <t>1,2,9</t>
+  </si>
+  <si>
+    <t>5,8,12</t>
+  </si>
+  <si>
+    <t>3,15</t>
+  </si>
+  <si>
+    <t>응원단의 응원소리가 들려온다.\n승리점수가 2.5배 증가한다.</t>
+  </si>
+  <si>
     <t>루지</t>
   </si>
   <si>
+    <t>캐나다</t>
+  </si>
+  <si>
+    <t>1,2,10</t>
+  </si>
+  <si>
     <t>노르딕복합</t>
   </si>
   <si>
+    <t>오래된 장비</t>
+  </si>
+  <si>
+    <t>5,8,13</t>
+  </si>
+  <si>
+    <t>3,16</t>
+  </si>
+  <si>
     <t>쇼트트랙</t>
   </si>
   <si>
+    <t>오랫동안 써온 장비. 익숙하지만 고장날 위험이 있다.\n승리점수가 -30~30% 증가한다.</t>
+  </si>
+  <si>
+    <t>네덜란드</t>
+  </si>
+  <si>
+    <t>1,2,11</t>
+  </si>
+  <si>
+    <t>5,8,14</t>
+  </si>
+  <si>
     <t>스피드스케이팅</t>
   </si>
   <si>
+    <t>3,17</t>
+  </si>
+  <si>
+    <t>독일</t>
+  </si>
+  <si>
     <t>스켈레톤</t>
   </si>
   <si>
+    <t>1,2,12</t>
+  </si>
+  <si>
+    <t>5,8,15</t>
+  </si>
+  <si>
+    <t>3,18</t>
+  </si>
+  <si>
     <t>스키점프</t>
   </si>
   <si>
+    <t>스위스</t>
+  </si>
+  <si>
+    <t>1,2,13</t>
+  </si>
+  <si>
     <t>스노우보드</t>
   </si>
   <si>
-    <t>#item[{}]</t>
-  </si>
-  <si>
-    <t>main_skill</t>
-  </si>
-  <si>
-    <t>sub_value_1</t>
-  </si>
-  <si>
-    <t>sub_value_2</t>
-  </si>
-  <si>
-    <t>decs</t>
-  </si>
-  <si>
-    <t>대통령 표창</t>
-  </si>
-  <si>
-    <t>BONUS_CARD</t>
-  </si>
-  <si>
-    <t>저번 체육대회에서 받은 대통령 표창. 명예롭다.
-보너스 카드를 1장 더 볼수있다.</t>
-  </si>
-  <si>
-    <t>빛바랜 사진</t>
-  </si>
-  <si>
-    <t>PLUS</t>
-  </si>
-  <si>
-    <t>가족과의 행복한 시간이 담긴 사진.
-승리점수가 20~30% 증가한다.</t>
-  </si>
-  <si>
-    <t>응원소리</t>
-  </si>
-  <si>
-    <t>MULTIPLY</t>
-  </si>
-  <si>
-    <t>응원단의 응원소리가 들려온다.
-승리점수가 2.5배 증가한다.</t>
-  </si>
-  <si>
-    <t>오래된 장비</t>
-  </si>
-  <si>
-    <t>오랫동안 써온 장비. 익숙하지만 고장날 위험이 있다.
-승리점수가 -30~30% 증가한다.</t>
+    <t>5,8,16</t>
+  </si>
+  <si>
+    <t>3,19</t>
+  </si>
+  <si>
+    <t>벨라루스</t>
+  </si>
+  <si>
+    <t>1,2,14</t>
+  </si>
+  <si>
+    <t>5,8,17</t>
+  </si>
+  <si>
+    <t>3,20</t>
+  </si>
+  <si>
+    <t>오스트리아</t>
+  </si>
+  <si>
+    <t>1,2,15</t>
+  </si>
+  <si>
+    <t>5,8,18</t>
+  </si>
+  <si>
+    <t>3,21</t>
+  </si>
+  <si>
+    <t>프랑스</t>
+  </si>
+  <si>
+    <t>1,2,16</t>
+  </si>
+  <si>
+    <t>5,8,19</t>
+  </si>
+  <si>
+    <t>3,22</t>
+  </si>
+  <si>
+    <t>폴란드</t>
+  </si>
+  <si>
+    <t>1,2,17</t>
+  </si>
+  <si>
+    <t>5,8,20</t>
+  </si>
+  <si>
+    <t>3,23</t>
+  </si>
+  <si>
+    <t>스웨덴</t>
+  </si>
+  <si>
+    <t>1,2,18</t>
+  </si>
+  <si>
+    <t>5,8,21</t>
+  </si>
+  <si>
+    <t>3,24</t>
   </si>
   <si>
     <t>#commentary[{}]</t>
@@ -250,224 +438,20 @@
     <t>content</t>
   </si>
   <si>
-    <t>안녕하세요.
-안녕하세요.
-오늘은 {0} 경기가 있는 날입니다.
-어쩌구저쩌구 시부렁
-{1} 경기에 참여한 선수들이 입장합니다.</t>
-  </si>
-  <si>
-    <t>Hellow.
-Hi.
-오늘은 {0} 경기가 있는 날입니다.
-어쩌구저쩌구 시부렁
-{1} 경기에 참여한 선수들이 입장합니다.</t>
-  </si>
-  <si>
-    <t>바보들.
-채워라.
-오늘은 {0} 경기가 있는 날입니다.
-어쩌구저쩌구 시부렁
-{1} 경기에 참여한 선수들이 입장합니다.</t>
-  </si>
-  <si>
-    <t>#nation[{}]</t>
-  </si>
-  <si>
-    <t>very_good_thing</t>
-  </si>
-  <si>
-    <t>good_thing</t>
-  </si>
-  <si>
-    <t>wrong_thing</t>
-  </si>
-  <si>
-    <t>대한민국</t>
-  </si>
-  <si>
-    <t>1,2,4</t>
-  </si>
-  <si>
-    <t>5,8,7</t>
-  </si>
-  <si>
-    <t>3,10</t>
-  </si>
-  <si>
-    <t>일본</t>
-  </si>
-  <si>
-    <t>1,2,5</t>
-  </si>
-  <si>
-    <t>5,8,8</t>
-  </si>
-  <si>
-    <t>3,11</t>
-  </si>
-  <si>
-    <t>중국</t>
-  </si>
-  <si>
-    <t>1,2,6</t>
-  </si>
-  <si>
-    <t>5,8,9</t>
-  </si>
-  <si>
-    <t>3,12</t>
-  </si>
-  <si>
-    <t>미국</t>
-  </si>
-  <si>
-    <t>1,2,7</t>
-  </si>
-  <si>
-    <t>5,8,10</t>
-  </si>
-  <si>
-    <t>3,13</t>
-  </si>
-  <si>
-    <t>노르웨이</t>
-  </si>
-  <si>
-    <t>1,2,8</t>
-  </si>
-  <si>
-    <t>5,8,11</t>
-  </si>
-  <si>
-    <t>3,14</t>
-  </si>
-  <si>
-    <t>러시아</t>
-  </si>
-  <si>
-    <t>1,2,9</t>
-  </si>
-  <si>
-    <t>5,8,12</t>
-  </si>
-  <si>
-    <t>3,15</t>
-  </si>
-  <si>
-    <t>캐나다</t>
-  </si>
-  <si>
-    <t>1,2,10</t>
-  </si>
-  <si>
-    <t>5,8,13</t>
-  </si>
-  <si>
-    <t>3,16</t>
-  </si>
-  <si>
-    <t>네덜란드</t>
-  </si>
-  <si>
-    <t>1,2,11</t>
-  </si>
-  <si>
-    <t>5,8,14</t>
-  </si>
-  <si>
-    <t>3,17</t>
-  </si>
-  <si>
-    <t>독일</t>
-  </si>
-  <si>
-    <t>1,2,12</t>
-  </si>
-  <si>
-    <t>5,8,15</t>
-  </si>
-  <si>
-    <t>3,18</t>
-  </si>
-  <si>
-    <t>스위스</t>
-  </si>
-  <si>
-    <t>1,2,13</t>
-  </si>
-  <si>
-    <t>5,8,16</t>
-  </si>
-  <si>
-    <t>3,19</t>
-  </si>
-  <si>
-    <t>벨라루스</t>
-  </si>
-  <si>
-    <t>1,2,14</t>
-  </si>
-  <si>
-    <t>5,8,17</t>
-  </si>
-  <si>
-    <t>3,20</t>
-  </si>
-  <si>
-    <t>오스트리아</t>
-  </si>
-  <si>
-    <t>1,2,15</t>
-  </si>
-  <si>
-    <t>5,8,18</t>
-  </si>
-  <si>
-    <t>3,21</t>
-  </si>
-  <si>
-    <t>프랑스</t>
-  </si>
-  <si>
-    <t>1,2,16</t>
-  </si>
-  <si>
-    <t>5,8,19</t>
-  </si>
-  <si>
-    <t>3,22</t>
-  </si>
-  <si>
-    <t>폴란드</t>
-  </si>
-  <si>
-    <t>1,2,17</t>
-  </si>
-  <si>
-    <t>5,8,20</t>
-  </si>
-  <si>
-    <t>3,23</t>
-  </si>
-  <si>
-    <t>스웨덴</t>
-  </si>
-  <si>
-    <t>1,2,18</t>
-  </si>
-  <si>
-    <t>5,8,21</t>
-  </si>
-  <si>
-    <t>3,24</t>
+    <t>안녕하세요.1\n안녕하세요.\n오늘은 {0} 경기가 있는 날입니다.\n어쩌구저쩌구 시부렁\n{1} 경기에 참여한 선수들이 입장합니다.</t>
+  </si>
+  <si>
+    <t>안녕하세요.2\n안녕하세요.\n오늘은 {0} 경기가 있는 날입니다.\n어쩌구저쩌구 시부렁\n{1} 경기에 참여한 선수들이 입장합니다.</t>
+  </si>
+  <si>
+    <t>안녕하세요.3\n안녕하세요.\n오늘은 {0} 경기가 있는 날입니다.\n어쩌구저쩌구 시부렁\n{1} 경기에 참여한 선수들이 입장합니다.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -484,8 +468,12 @@
     <font>
       <name val="Arial"/>
     </font>
+    <font>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -496,6 +484,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF000000"/>
         <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
   </fills>
@@ -522,10 +516,10 @@
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
+      <alignment readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
+    <xf borderId="0" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -560,19 +554,19 @@
   <sheetData>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -580,13 +574,13 @@
         <v>1.0</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D3" s="1">
         <v>1.0</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4">
@@ -594,13 +588,13 @@
         <v>2.0</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="D4" s="1">
         <v>1.0</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5">
@@ -608,13 +602,13 @@
         <v>3.0</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="D5" s="1">
         <v>1.0</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6">
@@ -622,13 +616,13 @@
         <v>4.0</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="D6" s="1">
         <v>1.0</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7">
@@ -636,13 +630,13 @@
         <v>5.0</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="D7" s="1">
         <v>1.0</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8">
@@ -650,13 +644,13 @@
         <v>6.0</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="D8" s="1">
         <v>1.0</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9">
@@ -664,13 +658,13 @@
         <v>7.0</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="D9" s="1">
         <v>1.0</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10">
@@ -678,13 +672,13 @@
         <v>8.0</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>14</v>
+        <v>51</v>
       </c>
       <c r="D10" s="1">
         <v>1.0</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11">
@@ -692,13 +686,13 @@
         <v>9.0</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>15</v>
+        <v>57</v>
       </c>
       <c r="D11" s="1">
         <v>1.0</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12">
@@ -706,13 +700,13 @@
         <v>10.0</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>16</v>
+        <v>60</v>
       </c>
       <c r="D12" s="1">
         <v>1.0</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13">
@@ -720,13 +714,13 @@
         <v>11.0</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>17</v>
+        <v>64</v>
       </c>
       <c r="D13" s="1">
         <v>1.0</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14">
@@ -734,13 +728,13 @@
         <v>12.0</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>18</v>
+        <v>69</v>
       </c>
       <c r="D14" s="1">
         <v>1.0</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15">
@@ -748,13 +742,13 @@
         <v>13.0</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>19</v>
+        <v>72</v>
       </c>
       <c r="D15" s="1">
         <v>1.0</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16">
@@ -762,13 +756,13 @@
         <v>14.0</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>20</v>
+        <v>76</v>
       </c>
       <c r="D16" s="1">
         <v>1.0</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17">
@@ -776,13 +770,13 @@
         <v>15.0</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>21</v>
+        <v>79</v>
       </c>
       <c r="D17" s="1">
         <v>1.0</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -803,22 +797,22 @@
   <sheetData>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>44</v>
+        <v>6</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>45</v>
+        <v>8</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>46</v>
+        <v>11</v>
       </c>
       <c r="G2" s="1"/>
     </row>
@@ -827,16 +821,16 @@
         <v>1.0</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>47</v>
+        <v>14</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>49</v>
+        <v>18</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>50</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4">
@@ -844,16 +838,16 @@
         <v>2.0</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>51</v>
+        <v>22</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>52</v>
+        <v>25</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>53</v>
+        <v>26</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>54</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5">
@@ -861,16 +855,16 @@
         <v>3.0</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>55</v>
+        <v>31</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>56</v>
+        <v>32</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>57</v>
+        <v>33</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>58</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6">
@@ -878,16 +872,16 @@
         <v>4.0</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>60</v>
+        <v>39</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>62</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7">
@@ -895,16 +889,16 @@
         <v>5.0</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>63</v>
+        <v>43</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>66</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8">
@@ -912,16 +906,16 @@
         <v>6.0</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9">
@@ -929,16 +923,16 @@
         <v>7.0</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10">
@@ -946,16 +940,16 @@
         <v>8.0</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11">
@@ -963,16 +957,16 @@
         <v>9.0</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
     </row>
     <row r="12">
@@ -980,16 +974,16 @@
         <v>10.0</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="13">
@@ -997,16 +991,16 @@
         <v>11.0</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="14">
@@ -1014,16 +1008,16 @@
         <v>12.0</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="15">
@@ -1031,16 +1025,16 @@
         <v>13.0</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="16">
@@ -1048,16 +1042,16 @@
         <v>14.0</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17">
@@ -1065,16 +1059,16 @@
         <v>15.0</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -1095,25 +1089,25 @@
   <sheetData>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3">
@@ -1121,10 +1115,10 @@
         <v>1.0</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="E3" s="1">
         <v>1.0</v>
@@ -1133,7 +1127,7 @@
         <v>0.0</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4">
@@ -1141,10 +1135,10 @@
         <v>2.0</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="E4" s="1">
         <v>20.0</v>
@@ -1153,7 +1147,7 @@
         <v>30.0</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5">
@@ -1161,10 +1155,10 @@
         <v>3.0</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="E5" s="1">
         <v>2.5</v>
@@ -1173,7 +1167,7 @@
         <v>0.0</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>35</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6">
@@ -1181,10 +1175,10 @@
         <v>4.0</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>36</v>
+        <v>61</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="E6" s="1">
         <v>-30.0</v>
@@ -1193,7 +1187,7 @@
         <v>30.0</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>37</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7">
@@ -1247,13 +1241,13 @@
   <sheetData>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>38</v>
+        <v>102</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>39</v>
+        <v>103</v>
       </c>
     </row>
     <row r="3">
@@ -1261,7 +1255,7 @@
         <v>1.0</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>40</v>
+        <v>104</v>
       </c>
     </row>
     <row r="4">
@@ -1269,15 +1263,15 @@
         <v>2.0</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>41</v>
+        <v>105</v>
       </c>
     </row>
     <row r="5">
       <c r="B5" s="1">
         <v>3.0</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>42</v>
+      <c r="C5" s="6" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
